--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Tư Tưởng Hồ Chí Minh/Chương 1.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Tư Tưởng Hồ Chí Minh/Chương 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Tư Tưởng Hồ Chí Minh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Tư Tưởng Hồ Chí Minh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B44A06-C0B3-46B5-9430-BD6D66C025DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F5D0C0-55C1-4FB5-9690-C602B892CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
-  <si>
-    <t>Multiple Choice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Tất cả đều đúng</t>
   </si>
   <si>
     <t>Question Text</t>
-  </si>
-  <si>
-    <t>Question Type</t>
   </si>
   <si>
     <t>Option 1</t>
@@ -290,7 +284,7 @@
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -302,6 +296,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFBE4D5"/>
           <bgColor rgb="FFFBE4D5"/>
         </patternFill>
@@ -309,6 +311,19 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE2EFD9"/>
           <bgColor rgb="FFE2EFD9"/>
@@ -325,7 +340,10 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -338,54 +356,14 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE2EFD9"/>
           <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -689,346 +667,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="2" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="29.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6">
+    <row r="10" spans="1:6" ht="29.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29.25">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="29.25">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="15" priority="14">
-      <formula>AND(OR(NOT(ISBLANK($B2)),NOT(ISBLANK($C2)),NOT(ISBLANK($D2)),NOT(ISBLANK($E2)),NOT(ISBLANK($F2)),NOT(ISBLANK(#REF!)),NOT(ISBLANK($G2)),NOT(ISBLANK($H2)),NOT(ISBLANK($I2))),ISBLANK($A2))</formula>
+  <conditionalFormatting sqref="B2:C11">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>NOT(ISBLANK($A2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F11">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="11">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C11">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>AND(OR(#REF!="Open-Ended",#REF!="Draw"),NOT(ISBLANK(B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E11">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>AND(OR(#REF!="Open-Ended",#REF!="Draw"),ISBLANK(B2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E11">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND(#REF!="Fill-in-the-Blank",ISBLANK(C2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>AND(OR(#REF!="Open-Ended",#REF!="Poll",#REF!="Fill-in-the-Blank"),NOT(ISBLANK(F2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(OR(#REF!="Open-Ended",#REF!="Poll",#REF!="Fill-in-the-Blank",#REF!="Draw"),ISBLANK(F2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>AND(NOT(ISBLANK(F2)),NOT(OR(AND(OR(AND(LEN(F2)=3,LEN(SUBSTITUTE(F2,",",""))=2),AND(LEN(F2)=5,LEN(SUBSTITUTE(F2,",",""))=3),AND(LEN(F2)=7,LEN(SUBSTITUTE(F2,",",""))=4),AND(LEN(F2)=9,LEN(SUBSTITUTE(F2,",",""))=5)),OR(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,,")),AND(F2&gt;=1,F2&lt;=5))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(NOT(ISBLANK(F2)),OR(AND(OR(AND(LEN(F2)=3,LEN(SUBSTITUTE(F2,",",""))=2),AND(LEN(F2)=5,LEN(SUBSTITUTE(F2,",",""))=3),AND(LEN(F2)=7,LEN(SUBSTITUTE(F2,",",""))=4),AND(LEN(F2)=9,LEN(SUBSTITUTE(F2,",",""))=5)),OR(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,,")),AND(F2&gt;=1,F2&lt;=5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>AND(NOT(ISBLANK(A2)),ISBLANK(F2))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="3" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(F2))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="notBetween">
+      <formula>1</formula>
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="16">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>AND(OR(NOT(ISBLANK(#REF!)),NOT(ISBLANK($B2)),NOT(ISBLANK($C2)),NOT(ISBLANK($D2)),NOT(ISBLANK($E2)),NOT(ISBLANK(#REF!)),NOT(ISBLANK($F2)),NOT(ISBLANK($G2)),NOT(ISBLANK($H2))),ISBLANK($A2))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>AND(OR(NOT(ISBLANK($C2)),NOT(ISBLANK($D2)),NOT(ISBLANK($E2)),NOT(ISBLANK($F2)),NOT(ISBLANK(#REF!)),NOT(ISBLANK($G2)),NOT(ISBLANK($H2)),NOT(ISBLANK($I2))),ISBLANK($A2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>NOT(ISBLANK($A2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G11">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D11">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>NOT(ISBLANK($A2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>AND(OR($B2="Open-Ended",$B2="Draw"),NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F11">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>AND(OR($B2="Open-Ended",$B2="Draw"),ISBLANK(C2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:F11">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>AND($B2="Fill-in-the-Blank",ISBLANK(D2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(OR($B2="Open-Ended",$B2="Poll",$B2="Fill-in-the-Blank"),NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(OR($B2="Open-Ended",$B2="Poll",$B2="Fill-in-the-Blank",$B2="Draw"),ISBLANK(G2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(NOT(ISBLANK(G2)),NOT(OR(AND(OR(AND(LEN(G2)=3,LEN(SUBSTITUTE(G2,",",""))=2),AND(LEN(G2)=5,LEN(SUBSTITUTE(G2,",",""))=3),AND(LEN(G2)=7,LEN(SUBSTITUTE(G2,",",""))=4),AND(LEN(G2)=9,LEN(SUBSTITUTE(G2,",",""))=5)),OR(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,,")),AND(G2&gt;=1,G2&lt;=5))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>AND(NOT(ISBLANK(G2)),OR(AND(OR(AND(LEN(G2)=3,LEN(SUBSTITUTE(G2,",",""))=2),AND(LEN(G2)=5,LEN(SUBSTITUTE(G2,",",""))=3),AND(LEN(G2)=7,LEN(SUBSTITUTE(G2,",",""))=4),AND(LEN(G2)=9,LEN(SUBSTITUTE(G2,",",""))=5)),OR(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"1",""),"2",""),"3",""),"4",""),"5","")=",,,,")),AND(G2&gt;=1,G2&lt;=5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND(NOT(ISBLANK(A2)),ISBLANK(G2))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(G2))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="notBetween">
-      <formula>1</formula>
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{59E59F4B-0741-4D24-9E55-2F43497F6C2F}">
-      <formula1>"Multiple Choice,Checkbox,Fill-in-the-Blank,Open-Ended,Poll,Draw"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>